--- a/data/trans_orig/P42-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A0554F-AA2D-4FFC-92D1-3638E905FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E09B077-DA3D-4351-9E8F-0AD1497BC54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F74CDB7-3432-44B7-BEFE-0667253C3448}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA3AE4FB-C9BF-4D58-98C3-7C70375931DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="112">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>74,98%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>25,02%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>79,91%</t>
   </si>
   <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>87,79%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,142 +170,136 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
     <t>14,01%</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -792,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A942E925-EB93-43F7-A3F3-20A4221076EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7FD8B1-3C1C-4FC6-9B79-0B0BF98FCECB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FC3480-B1DF-4951-A9C7-744F49AE0AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B563E-A20A-4D19-8D58-9C7EE234B750}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2246,7 +2240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A63748-5D7E-423F-A22A-31078F8A7C58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E9A25C-BB14-4906-A606-52DC4FB6899D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2830,7 @@
         <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>2872</v>
@@ -2851,7 +2845,7 @@
         <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,10 +2876,10 @@
         <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>430</v>
@@ -2897,10 +2891,10 @@
         <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48059E90-66C5-4972-935A-FFD3A44E6CCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6935AD5-79BF-4D7B-B4E9-8806B8E376D3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2990,7 +2984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3110,13 +3104,13 @@
         <v>577918</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>989</v>
@@ -3125,13 +3119,13 @@
         <v>577918</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3153,13 @@
         <v>102179</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -3174,13 +3168,13 @@
         <v>102179</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3253,13 @@
         <v>1314324</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>1878</v>
@@ -3274,13 +3268,13 @@
         <v>1314324</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3302,13 @@
         <v>407326</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -3323,13 +3317,13 @@
         <v>407326</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3402,13 @@
         <v>440287</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>645</v>
@@ -3423,13 +3417,13 @@
         <v>440287</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3451,13 @@
         <v>56828</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -3472,13 +3466,13 @@
         <v>56828</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3551,13 @@
         <v>2332530</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>3512</v>
@@ -3572,13 +3566,13 @@
         <v>2332530</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3600,13 @@
         <v>566332</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M14" s="7">
         <v>508</v>
@@ -3621,13 +3615,13 @@
         <v>566332</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E09B077-DA3D-4351-9E8F-0AD1497BC54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{681EABA3-8D85-4D43-A6B8-E602AE795748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA3AE4FB-C9BF-4D58-98C3-7C70375931DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5F15D94-DB1A-466E-8975-425FE2E2C3AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,10 +80,10 @@
     <t>74,98%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>25,02%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,7 +107,7 @@
     <t>79,91%</t>
   </si>
   <si>
-    <t>77,77%</t>
+    <t>77,91%</t>
   </si>
   <si>
     <t>81,85%</t>
@@ -119,7 +119,7 @@
     <t>18,15%</t>
   </si>
   <si>
-    <t>22,23%</t>
+    <t>22,09%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>87,79%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,55 +170,55 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>87,18%</t>
@@ -227,79 +227,79 @@
     <t>86,02%</t>
   </si>
   <si>
-    <t>88,26%</t>
+    <t>88,24%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>11,74%</t>
+    <t>11,76%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
   </si>
   <si>
     <t>83,98%</t>
   </si>
   <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -308,73 +308,73 @@
     <t>84,98%</t>
   </si>
   <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7FD8B1-3C1C-4FC6-9B79-0B0BF98FCECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71F4342-53E9-4B1A-9B58-DFE3B9D7EB68}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B563E-A20A-4D19-8D58-9C7EE234B750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF09996-73E5-4950-8E13-D16FA896EA77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,7 +2240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E9A25C-BB14-4906-A606-52DC4FB6899D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB37261C-F490-4EA9-A96D-786B6D49A311}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,10 +2827,10 @@
         <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>2872</v>
@@ -2842,10 +2842,10 @@
         <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,10 +2876,10 @@
         <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>430</v>
@@ -2891,10 +2891,10 @@
         <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6935AD5-79BF-4D7B-B4E9-8806B8E376D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC095CB-C7CE-431C-874F-5B18C3A8A996}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3399,7 +3399,7 @@
         <v>645</v>
       </c>
       <c r="I10" s="7">
-        <v>440287</v>
+        <v>440288</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>100</v>
@@ -3414,7 +3414,7 @@
         <v>645</v>
       </c>
       <c r="N10" s="7">
-        <v>440287</v>
+        <v>440288</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>100</v>
@@ -3497,7 +3497,7 @@
         <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>497115</v>
+        <v>497116</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3512,7 +3512,7 @@
         <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>497115</v>
+        <v>497116</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P42-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{681EABA3-8D85-4D43-A6B8-E602AE795748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2CA79E-61A5-4793-AEE3-6645404D5FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5F15D94-DB1A-466E-8975-425FE2E2C3AF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09B8DC33-E1D0-4042-88BA-3C9A591253AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="114">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>74,98%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>25,02%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>79,91%</t>
   </si>
   <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>87,79%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,73 +170,73 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
@@ -245,19 +245,19 @@
     <t>83,98%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>87,28%</t>
@@ -266,13 +266,13 @@
     <t>85,87%</t>
   </si>
   <si>
-    <t>88,68%</t>
+    <t>88,82%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>11,32%</t>
+    <t>11,18%</t>
   </si>
   <si>
     <t>14,13%</t>
@@ -281,25 +281,31 @@
     <t>92,56%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -308,73 +314,73 @@
     <t>84,98%</t>
   </si>
   <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71F4342-53E9-4B1A-9B58-DFE3B9D7EB68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F6802E-D530-458F-A2EA-19EAD08157BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF09996-73E5-4950-8E13-D16FA896EA77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E10EF5D-1F46-4E2C-B8D8-6815228BFBBD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB37261C-F490-4EA9-A96D-786B6D49A311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565EB1A6-0BB6-41FD-ABDC-2ED75B242A0E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,10 +2833,10 @@
         <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>2872</v>
@@ -2842,10 +2848,10 @@
         <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,10 +2882,10 @@
         <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>430</v>
@@ -2891,10 +2897,10 @@
         <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC095CB-C7CE-431C-874F-5B18C3A8A996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE4489-3D30-4FB2-87E4-61AF524E40B2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2984,7 +2990,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3104,13 +3110,13 @@
         <v>577918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>989</v>
@@ -3119,13 +3125,13 @@
         <v>577918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3159,13 @@
         <v>102179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -3168,13 +3174,13 @@
         <v>102179</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3259,13 @@
         <v>1314324</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>1878</v>
@@ -3268,13 +3274,13 @@
         <v>1314324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3308,13 @@
         <v>407326</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -3317,13 +3323,13 @@
         <v>407326</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,31 +3405,31 @@
         <v>645</v>
       </c>
       <c r="I10" s="7">
-        <v>440288</v>
+        <v>440287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>645</v>
       </c>
       <c r="N10" s="7">
-        <v>440288</v>
+        <v>440287</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3457,13 @@
         <v>56828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -3466,13 +3472,13 @@
         <v>56828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,7 +3503,7 @@
         <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>497116</v>
+        <v>497115</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3512,7 +3518,7 @@
         <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>497116</v>
+        <v>497115</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3551,13 +3557,13 @@
         <v>2332530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>3512</v>
@@ -3566,13 +3572,13 @@
         <v>2332530</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3606,13 @@
         <v>566332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
         <v>508</v>
@@ -3615,13 +3621,13 @@
         <v>566332</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2CA79E-61A5-4793-AEE3-6645404D5FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5C92B0-10CB-4CF5-B688-480ABB2ED765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09B8DC33-E1D0-4042-88BA-3C9A591253AE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{15BC0AB1-41F8-45EB-871F-DEBC0E7CF6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -311,76 +311,76 @@
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F6802E-D530-458F-A2EA-19EAD08157BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7765F1-FA8E-4F0B-A764-1FDEFC88437E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E10EF5D-1F46-4E2C-B8D8-6815228BFBBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED22150-44B4-42EE-ABAE-60D315981CDF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2246,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565EB1A6-0BB6-41FD-ABDC-2ED75B242A0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9471C5F-8F89-41E8-9DA5-4E757347816E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,7 +2827,7 @@
         <v>2872</v>
       </c>
       <c r="I13" s="7">
-        <v>3056187</v>
+        <v>3056188</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>60</v>
@@ -2842,7 +2842,7 @@
         <v>2872</v>
       </c>
       <c r="N13" s="7">
-        <v>3056187</v>
+        <v>3056188</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>60</v>
@@ -2925,7 +2925,7 @@
         <v>3302</v>
       </c>
       <c r="I15" s="7">
-        <v>3505732</v>
+        <v>3505733</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2940,7 +2940,7 @@
         <v>3302</v>
       </c>
       <c r="N15" s="7">
-        <v>3505732</v>
+        <v>3505733</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2973,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE4489-3D30-4FB2-87E4-61AF524E40B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82AD98A-C4F6-419B-97E9-5E04DF305F0C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,7 +3107,7 @@
         <v>989</v>
       </c>
       <c r="I4" s="7">
-        <v>577918</v>
+        <v>519554</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>90</v>
@@ -3122,7 +3122,7 @@
         <v>989</v>
       </c>
       <c r="N4" s="7">
-        <v>577918</v>
+        <v>519554</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>90</v>
@@ -3156,7 +3156,7 @@
         <v>179</v>
       </c>
       <c r="I5" s="7">
-        <v>102179</v>
+        <v>92163</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>93</v>
@@ -3171,7 +3171,7 @@
         <v>179</v>
       </c>
       <c r="N5" s="7">
-        <v>102179</v>
+        <v>92163</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>93</v>
@@ -3205,7 +3205,7 @@
         <v>1168</v>
       </c>
       <c r="I6" s="7">
-        <v>680097</v>
+        <v>611717</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3220,7 +3220,7 @@
         <v>1168</v>
       </c>
       <c r="N6" s="7">
-        <v>680097</v>
+        <v>611717</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3256,7 +3256,7 @@
         <v>1878</v>
       </c>
       <c r="I7" s="7">
-        <v>1314324</v>
+        <v>1285438</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>96</v>
@@ -3271,7 +3271,7 @@
         <v>1878</v>
       </c>
       <c r="N7" s="7">
-        <v>1314324</v>
+        <v>1285438</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>96</v>
@@ -3305,7 +3305,7 @@
         <v>272</v>
       </c>
       <c r="I8" s="7">
-        <v>407326</v>
+        <v>462511</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>99</v>
@@ -3320,7 +3320,7 @@
         <v>272</v>
       </c>
       <c r="N8" s="7">
-        <v>407326</v>
+        <v>462511</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>99</v>
@@ -3354,7 +3354,7 @@
         <v>2150</v>
       </c>
       <c r="I9" s="7">
-        <v>1721650</v>
+        <v>1747949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3369,7 +3369,7 @@
         <v>2150</v>
       </c>
       <c r="N9" s="7">
-        <v>1721650</v>
+        <v>1747949</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3405,7 +3405,7 @@
         <v>645</v>
       </c>
       <c r="I10" s="7">
-        <v>440287</v>
+        <v>408963</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>102</v>
@@ -3420,7 +3420,7 @@
         <v>645</v>
       </c>
       <c r="N10" s="7">
-        <v>440287</v>
+        <v>408963</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>102</v>
@@ -3454,7 +3454,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>56828</v>
+        <v>51510</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>105</v>
@@ -3469,7 +3469,7 @@
         <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>56828</v>
+        <v>51510</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>105</v>
@@ -3503,7 +3503,7 @@
         <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>497115</v>
+        <v>460473</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3518,7 +3518,7 @@
         <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>497115</v>
+        <v>460473</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3554,7 +3554,7 @@
         <v>3512</v>
       </c>
       <c r="I13" s="7">
-        <v>2332530</v>
+        <v>2213955</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>108</v>
@@ -3569,7 +3569,7 @@
         <v>3512</v>
       </c>
       <c r="N13" s="7">
-        <v>2332530</v>
+        <v>2213955</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>108</v>
@@ -3603,7 +3603,7 @@
         <v>508</v>
       </c>
       <c r="I14" s="7">
-        <v>566332</v>
+        <v>606184</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>111</v>
@@ -3618,7 +3618,7 @@
         <v>508</v>
       </c>
       <c r="N14" s="7">
-        <v>566332</v>
+        <v>606184</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>111</v>
@@ -3652,7 +3652,7 @@
         <v>4020</v>
       </c>
       <c r="I15" s="7">
-        <v>2898862</v>
+        <v>2820139</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3667,7 +3667,7 @@
         <v>4020</v>
       </c>
       <c r="N15" s="7">
-        <v>2898862</v>
+        <v>2820139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
